--- a/SchedulingData/static5/pso/scheduling1_10.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_10.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>59.36</v>
+        <v>38.72</v>
       </c>
       <c r="E2" t="n">
-        <v>26.724</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>82.45999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="E3" t="n">
-        <v>25.424</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.66</v>
+        <v>75.2</v>
       </c>
       <c r="E4" t="n">
-        <v>21.824</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59.36</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>117.08</v>
+        <v>78.8</v>
       </c>
       <c r="E5" t="n">
-        <v>23.552</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="6">
@@ -542,74 +542,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>139.66</v>
+        <v>38.72</v>
       </c>
       <c r="D6" t="n">
-        <v>185.54</v>
+        <v>115.58</v>
       </c>
       <c r="E6" t="n">
-        <v>18.856</v>
+        <v>22.252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>80.2</v>
+        <v>65.72</v>
       </c>
       <c r="E7" t="n">
-        <v>24.66</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>117.08</v>
+        <v>115.58</v>
       </c>
       <c r="D8" t="n">
-        <v>195.28</v>
+        <v>163.56</v>
       </c>
       <c r="E8" t="n">
-        <v>19.812</v>
+        <v>19.084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>78.8</v>
       </c>
       <c r="D9" t="n">
-        <v>47.56</v>
+        <v>111.16</v>
       </c>
       <c r="E9" t="n">
-        <v>25.944</v>
+        <v>23.664</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>185.54</v>
+        <v>163.56</v>
       </c>
       <c r="D10" t="n">
-        <v>249.28</v>
+        <v>219.06</v>
       </c>
       <c r="E10" t="n">
-        <v>14.592</v>
+        <v>14.664</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>65.72</v>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>121.92</v>
       </c>
       <c r="E11" t="n">
-        <v>26.48</v>
+        <v>22.648</v>
       </c>
     </row>
     <row r="12">
@@ -656,93 +656,93 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>57</v>
       </c>
-      <c r="D12" t="n">
-        <v>106.08</v>
-      </c>
       <c r="E12" t="n">
-        <v>24.192</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>195.28</v>
+        <v>219.06</v>
       </c>
       <c r="D13" t="n">
-        <v>265.06</v>
+        <v>260.14</v>
       </c>
       <c r="E13" t="n">
-        <v>15.964</v>
+        <v>11.696</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>62.8</v>
+        <v>107.72</v>
       </c>
       <c r="E14" t="n">
-        <v>27.36</v>
+        <v>23.048</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>265.06</v>
+        <v>121.92</v>
       </c>
       <c r="D15" t="n">
-        <v>303.86</v>
+        <v>168.88</v>
       </c>
       <c r="E15" t="n">
-        <v>13.724</v>
+        <v>18.592</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>106.08</v>
+        <v>168.88</v>
       </c>
       <c r="D16" t="n">
-        <v>148.24</v>
+        <v>236.28</v>
       </c>
       <c r="E16" t="n">
-        <v>21.596</v>
+        <v>13.492</v>
       </c>
     </row>
     <row r="17">
@@ -751,74 +751,74 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>80.2</v>
+        <v>111.16</v>
       </c>
       <c r="D17" t="n">
-        <v>131.32</v>
+        <v>168.56</v>
       </c>
       <c r="E17" t="n">
-        <v>20.188</v>
+        <v>20.544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>47.56</v>
+        <v>75.2</v>
       </c>
       <c r="D18" t="n">
-        <v>136.48</v>
+        <v>125.88</v>
       </c>
       <c r="E18" t="n">
-        <v>21.632</v>
+        <v>21.712</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>249.28</v>
+        <v>168.56</v>
       </c>
       <c r="D19" t="n">
-        <v>318.98</v>
+        <v>228.24</v>
       </c>
       <c r="E19" t="n">
-        <v>11.212</v>
+        <v>16.696</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>318.98</v>
+        <v>62.7</v>
       </c>
       <c r="D20" t="n">
-        <v>374.5</v>
+        <v>110.1</v>
       </c>
       <c r="E20" t="n">
-        <v>8.300000000000001</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="21">
@@ -827,231 +827,231 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>62.8</v>
+        <v>125.88</v>
       </c>
       <c r="D21" t="n">
-        <v>159.6</v>
+        <v>196.8</v>
       </c>
       <c r="E21" t="n">
-        <v>22.26</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>148.24</v>
+        <v>196.8</v>
       </c>
       <c r="D22" t="n">
-        <v>190.74</v>
+        <v>266.18</v>
       </c>
       <c r="E22" t="n">
-        <v>18.476</v>
+        <v>13.392</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>190.74</v>
+        <v>260.14</v>
       </c>
       <c r="D23" t="n">
-        <v>245.04</v>
+        <v>319.94</v>
       </c>
       <c r="E23" t="n">
-        <v>15.176</v>
+        <v>8.316000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>136.48</v>
+        <v>107.72</v>
       </c>
       <c r="D24" t="n">
-        <v>211.78</v>
+        <v>185.12</v>
       </c>
       <c r="E24" t="n">
-        <v>17.212</v>
+        <v>20.408</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>159.6</v>
+        <v>110.1</v>
       </c>
       <c r="D25" t="n">
-        <v>209.72</v>
+        <v>150.3</v>
       </c>
       <c r="E25" t="n">
-        <v>18.388</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>303.86</v>
+        <v>319.94</v>
       </c>
       <c r="D26" t="n">
-        <v>345.06</v>
+        <v>378.92</v>
       </c>
       <c r="E26" t="n">
-        <v>10.244</v>
+        <v>6.028</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>245.04</v>
+        <v>266.18</v>
       </c>
       <c r="D27" t="n">
-        <v>315.64</v>
+        <v>343.82</v>
       </c>
       <c r="E27" t="n">
-        <v>11.696</v>
+        <v>10.708</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>131.32</v>
+        <v>185.12</v>
       </c>
       <c r="D28" t="n">
-        <v>181.12</v>
+        <v>225.62</v>
       </c>
       <c r="E28" t="n">
-        <v>16.828</v>
+        <v>17.488</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>211.78</v>
+        <v>150.3</v>
       </c>
       <c r="D29" t="n">
-        <v>254.76</v>
+        <v>199.6</v>
       </c>
       <c r="E29" t="n">
-        <v>14.044</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>254.76</v>
+        <v>225.62</v>
       </c>
       <c r="D30" t="n">
-        <v>335.28</v>
+        <v>270.48</v>
       </c>
       <c r="E30" t="n">
-        <v>10.612</v>
+        <v>14.632</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>181.12</v>
+        <v>236.28</v>
       </c>
       <c r="D31" t="n">
-        <v>251.6</v>
+        <v>285.32</v>
       </c>
       <c r="E31" t="n">
-        <v>13.88</v>
+        <v>9.228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>209.72</v>
+        <v>228.24</v>
       </c>
       <c r="D32" t="n">
-        <v>304.62</v>
+        <v>278.04</v>
       </c>
       <c r="E32" t="n">
-        <v>15.468</v>
+        <v>13.336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1059,70 +1059,70 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>251.6</v>
+        <v>270.48</v>
       </c>
       <c r="D33" t="n">
-        <v>324.92</v>
+        <v>319.4</v>
       </c>
       <c r="E33" t="n">
-        <v>10.128</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>324.92</v>
+        <v>285.32</v>
       </c>
       <c r="D34" t="n">
-        <v>376.84</v>
+        <v>343.94</v>
       </c>
       <c r="E34" t="n">
-        <v>7.536</v>
+        <v>6.456</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>376.84</v>
+        <v>199.6</v>
       </c>
       <c r="D35" t="n">
-        <v>446.54</v>
+        <v>255.7</v>
       </c>
       <c r="E35" t="n">
-        <v>4.156</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>345.06</v>
+        <v>278.04</v>
       </c>
       <c r="D36" t="n">
-        <v>414.44</v>
+        <v>337.36</v>
       </c>
       <c r="E36" t="n">
-        <v>6.396</v>
+        <v>9.023999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1131,93 +1131,93 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>414.44</v>
+        <v>255.7</v>
       </c>
       <c r="D37" t="n">
-        <v>479</v>
+        <v>284.5</v>
       </c>
       <c r="E37" t="n">
-        <v>3.54</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>374.5</v>
+        <v>343.94</v>
       </c>
       <c r="D38" t="n">
-        <v>413.62</v>
+        <v>390.96</v>
       </c>
       <c r="E38" t="n">
-        <v>5.528</v>
+        <v>3.864</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>304.62</v>
+        <v>378.92</v>
       </c>
       <c r="D39" t="n">
-        <v>366.92</v>
+        <v>418.08</v>
       </c>
       <c r="E39" t="n">
-        <v>12.348</v>
+        <v>2.752</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>366.92</v>
+        <v>284.5</v>
       </c>
       <c r="D40" t="n">
-        <v>424.86</v>
+        <v>374.5</v>
       </c>
       <c r="E40" t="n">
-        <v>9.664</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>335.28</v>
+        <v>319.4</v>
       </c>
       <c r="D41" t="n">
-        <v>410.78</v>
+        <v>359.82</v>
       </c>
       <c r="E41" t="n">
-        <v>7.192</v>
+        <v>7.968</v>
       </c>
     </row>
   </sheetData>
